--- a/Dielmex Order Manager/Programacion-Excel.xlsx
+++ b/Dielmex Order Manager/Programacion-Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15312" windowHeight="7416" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17616" windowHeight="7416" tabRatio="638" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Precios" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="349">
   <si>
     <t>Descripción</t>
   </si>
@@ -1061,13 +1061,22 @@
     <t>Tecnico</t>
   </si>
   <si>
-    <t>ds</t>
-  </si>
-  <si>
     <t>jonh</t>
   </si>
   <si>
     <t>jenh</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>guadalajara</t>
+  </si>
+  <si>
+    <t>vallejon</t>
+  </si>
+  <si>
+    <t>jeny</t>
   </si>
 </sst>
 </file>
@@ -1667,60 +1676,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1731,6 +1686,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1754,59 +1763,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1889,6 +1845,59 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2582,27 +2591,10 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="132A89A151759014AEB184F216556CD900D221"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2265"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="15E57E5F1128D3144B71B706123362B4519C21"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19EA1E6DA1E9D1146951A77C16F0B7E97DAC71"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2610,6 +2602,23 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2096"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="974"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1487594CF1FC2C147F61B896146A81E4A150B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3133"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2633,27 +2642,10 @@
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1487594CF1FC2C147F61B896146A81E4A150B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3133"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19EA1E6DA1E9D1146951A77C16F0B7E97DAC71"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15E57E5F1128D3144B71B706123362B4519C21"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2661,6 +2653,23 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2096"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="974"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="132A89A151759014AEB184F216556CD900D221"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2265"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2951,27 +2960,16 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -3135,26 +3133,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbOrdenHeader" displayName="tbOrdenHeader" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbOrdenHeader" displayName="tbOrdenHeader" ref="A1:G3" totalsRowShown="0">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No Orden"/>
-    <tableColumn id="11" name="No Equipo" dataDxfId="2"/>
+    <tableColumn id="11" name="No Equipo" dataDxfId="6"/>
     <tableColumn id="5" name="Centro de trabajo"/>
     <tableColumn id="6" name="Delegacion"/>
-    <tableColumn id="7" name="Fecha de Servicio" dataDxfId="1"/>
-    <tableColumn id="9" name="Tecnico" dataDxfId="6"/>
-    <tableColumn id="10" name="Recibio el servicio" dataDxfId="5"/>
+    <tableColumn id="7" name="Fecha de Servicio" dataDxfId="5"/>
+    <tableColumn id="9" name="Tecnico" dataDxfId="4"/>
+    <tableColumn id="10" name="Recibio el servicio" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tbOrdenBody" displayName="tbOrdenBody" ref="A1:E3" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tbOrdenBody" displayName="tbOrdenBody" ref="A1:E4" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Orden" dataDxfId="3"/>
+    <tableColumn id="1" name="Orden" dataDxfId="1"/>
     <tableColumn id="2" name="Clave" dataDxfId="0"/>
     <tableColumn id="3" name="Precio Unitario"/>
     <tableColumn id="4" name="Cantidad"/>
@@ -3430,8 +3428,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5305,8 +5303,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6261,8 +6259,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6292,14 +6290,14 @@
       <c r="F3" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="D5" s="83" t="s">
+      <c r="B5" s="87"/>
+      <c r="D5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -6314,10 +6312,10 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="E7" s="84"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6329,17 +6327,17 @@
         <v>1</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="84"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="82"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
@@ -6348,10 +6346,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -6470,52 +6468,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper21">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>891540</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="1034" r:id="rId6" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1150620</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="1034" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6545,52 +6543,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId10" name="_ActiveXWrapper1">
+        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1150620</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper21">
+        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>891540</xdr:colOff>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:colOff>15240</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper21"/>
+        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6613,30 +6611,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
@@ -6668,17 +6666,17 @@
         <v>33</v>
       </c>
       <c r="B9" s="45"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="17" t="s">
         <v>35</v>
       </c>
@@ -6697,17 +6695,17 @@
       <c r="A12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
@@ -6735,10 +6733,10 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="96"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -6762,10 +6760,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -6776,10 +6774,10 @@
       </c>
       <c r="B22" s="13"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="87"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -6788,41 +6786,41 @@
       <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
     </row>
     <row r="25" spans="1:9" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="88"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
@@ -6831,33 +6829,33 @@
       <c r="A28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="F31" s="94" t="s">
+      <c r="B31" s="92"/>
+      <c r="F31" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6884,16 +6882,22 @@
       <c r="A37" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A31:B31"/>
@@ -6905,12 +6909,6 @@
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
@@ -6974,16 +6972,16 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -7313,10 +7311,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7324,7 +7322,7 @@
     <col min="1" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="102" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="84" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
@@ -7344,7 +7342,7 @@
       <c r="D1" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="83" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="81" t="s">
@@ -7354,7 +7352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7365,18 +7363,41 @@
         <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="83">
+        <v>42016</v>
+      </c>
+      <c r="F2" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="E2" s="101">
-        <v>42016</v>
-      </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3">
+        <v>321</v>
+      </c>
+      <c r="D3" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="E3" s="83">
+        <v>42351</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3" s="81"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -7391,10 +7412,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7423,11 +7444,11 @@
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="103">
+      <c r="C2" s="86"/>
+      <c r="D2" s="85">
         <v>5</v>
       </c>
-      <c r="E2" s="103"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="81">
@@ -7438,6 +7459,18 @@
       </c>
       <c r="D3">
         <v>12</v>
+      </c>
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="81">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Dielmex Order Manager/Programacion-Excel.xlsx
+++ b/Dielmex Order Manager/Programacion-Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17616" windowHeight="7416" tabRatio="638" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16152" windowHeight="7416" tabRatio="638" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Precios" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="344">
   <si>
     <t>Descripción</t>
   </si>
@@ -1061,29 +1061,17 @@
     <t>Tecnico</t>
   </si>
   <si>
-    <t>jonh</t>
-  </si>
-  <si>
-    <t>jenh</t>
-  </si>
-  <si>
-    <t>mexico</t>
-  </si>
-  <si>
-    <t>guadalajara</t>
-  </si>
-  <si>
-    <t>vallejon</t>
-  </si>
-  <si>
-    <t>jeny</t>
+    <t>Actions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,6 +1185,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1223,7 +1218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1358,24 +1353,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1459,7 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1469,7 +1446,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1543,23 +1519,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,7 +1545,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,16 +1560,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,43 +1578,43 @@
     <xf numFmtId="4" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,21 +1623,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1676,7 +1645,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1686,6 +1654,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1746,7 +1754,7 @@
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="42">
     <dxf>
       <font>
         <sz val="9"/>
@@ -1894,6 +1902,137 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2748,13 +2887,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
@@ -2807,13 +2946,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
@@ -2866,13 +3005,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>754380</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
@@ -3098,15 +3237,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:F90" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:F90" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A3:F90"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="REF" dataDxfId="26"/>
-    <tableColumn id="2" name="UNIDAD DE MEDIDA" dataDxfId="25"/>
-    <tableColumn id="3" name="DESCRIPCION" dataDxfId="24"/>
-    <tableColumn id="4" name="REFACCIONES" dataDxfId="23"/>
-    <tableColumn id="5" name="MANO DE OBRA" dataDxfId="22"/>
-    <tableColumn id="6" name="TOTAL" dataDxfId="21">
+    <tableColumn id="1" name="REF" dataDxfId="37"/>
+    <tableColumn id="2" name="UNIDAD DE MEDIDA" dataDxfId="36"/>
+    <tableColumn id="3" name="DESCRIPCION" dataDxfId="35"/>
+    <tableColumn id="4" name="REFACCIONES" dataDxfId="34"/>
+    <tableColumn id="5" name="MANO DE OBRA" dataDxfId="33"/>
+    <tableColumn id="6" name="TOTAL" dataDxfId="32">
       <calculatedColumnFormula>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3115,26 +3254,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:I32" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:I32" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="No." dataDxfId="15"/>
-    <tableColumn id="2" name="CATEGORIA" dataDxfId="14"/>
-    <tableColumn id="3" name="TIPO" dataDxfId="13"/>
-    <tableColumn id="4" name="MARCA" dataDxfId="12"/>
-    <tableColumn id="5" name="MODELO" dataDxfId="11"/>
-    <tableColumn id="6" name="PLACA" dataDxfId="10"/>
-    <tableColumn id="7" name="NECONOMICO" dataDxfId="9"/>
-    <tableColumn id="8" name="RED" dataDxfId="8"/>
-    <tableColumn id="9" name="CILINDROS" dataDxfId="7"/>
+    <tableColumn id="1" name="No." dataDxfId="26"/>
+    <tableColumn id="2" name="CATEGORIA" dataDxfId="25"/>
+    <tableColumn id="3" name="TIPO" dataDxfId="24"/>
+    <tableColumn id="4" name="MARCA" dataDxfId="23"/>
+    <tableColumn id="5" name="MODELO" dataDxfId="22"/>
+    <tableColumn id="6" name="PLACA" dataDxfId="21"/>
+    <tableColumn id="7" name="NECONOMICO" dataDxfId="20"/>
+    <tableColumn id="8" name="RED" dataDxfId="19"/>
+    <tableColumn id="9" name="CILINDROS" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbOrdenHeader" displayName="tbOrdenHeader" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tbBody" displayName="tbBody" ref="A18:G19" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A18:G19"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Clave" dataDxfId="13"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="12"/>
+    <tableColumn id="3" name="Unidad de Medida" dataDxfId="11"/>
+    <tableColumn id="4" name="Precio Unitario" dataDxfId="10"/>
+    <tableColumn id="5" name="Cantidad" dataDxfId="9"/>
+    <tableColumn id="6" name="Subtotal" dataDxfId="8">
+      <calculatedColumnFormula>E19*D19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Actions" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbOrdenHeader" displayName="tbOrdenHeader" ref="A1:G2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No Orden"/>
     <tableColumn id="11" name="No Equipo" dataDxfId="6"/>
@@ -3148,9 +3305,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tbOrdenBody" displayName="tbOrdenBody" ref="A1:E4" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E4"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tbOrdenBody" displayName="tbOrdenBody" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Orden" dataDxfId="1"/>
     <tableColumn id="2" name="Clave" dataDxfId="0"/>
@@ -3442,1848 +3599,1848 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="44">
         <v>924.48</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="45">
         <v>174.07</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1098.55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="44">
         <v>1173.79</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="45">
         <v>193.64</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1367.4299999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="44">
         <v>98.44</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="45">
         <v>77.25</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>175.69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="44">
         <v>275</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="45">
         <v>80</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="44">
         <v>353.1</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="45">
         <v>48.41</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>401.51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="44">
         <v>342.4</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="45">
         <v>48.41</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>390.80999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="44">
         <v>84.53</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="45">
         <v>48.41</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>132.94</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="44">
         <v>105.93</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="45">
         <v>48.41</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>154.34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="44">
         <v>105.93</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="45">
         <v>48.41</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>154.34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="44">
         <v>199.02</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="45">
         <v>48.41</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>247.43</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="44">
         <v>256.8</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="45">
         <v>48.41</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>305.21000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="44">
         <v>192.6</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="45">
         <v>48.41</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>241.01</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="44">
         <v>192.6</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="45">
         <v>48.41</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>241.01</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="44">
         <v>192.6</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="45">
         <v>48.41</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>241.01</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="44">
         <v>375.57</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="45">
         <v>48.41</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>423.98</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="44">
         <v>983.33</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="45">
         <v>77.25</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1060.58</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="44">
         <v>583.15</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="45">
         <v>48.41</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>631.55999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="44">
         <v>497.55</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="45">
         <v>48.41</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>545.96</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="44">
         <v>923.41</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="45">
         <v>96.82</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1020.23</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="44">
         <v>526.44000000000005</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="45">
         <v>96.82</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>623.26</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="44">
         <v>368.08</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>440.17999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="44">
         <v>368.08</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>440.17999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="44">
         <v>410.88</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>482.98</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="44">
         <v>3323.42</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="45">
         <v>115.36</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>3438.78</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="44">
         <v>2382.89</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="45">
         <v>115.36</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>2498.25</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="44">
         <v>441.91</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>514.01</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="44">
         <v>850.65</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>922.75</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="44">
         <v>128.4</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="45">
         <v>38.11</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>166.51</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="44">
         <v>1050</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="45">
         <v>200</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1250</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="44">
         <v>78.11</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="45">
         <v>23.69</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>101.8</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="44">
         <v>78.11</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="45">
         <v>23.69</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F34" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>101.8</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="44">
         <v>475.08</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="45">
         <v>23.69</v>
       </c>
-      <c r="F35" s="54">
+      <c r="F35" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>498.77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="44">
         <v>78.11</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="45">
         <v>23.69</v>
       </c>
-      <c r="F36" s="54">
+      <c r="F36" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>101.8</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="44">
         <v>78.11</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="45">
         <v>23.69</v>
       </c>
-      <c r="F37" s="54">
+      <c r="F37" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>101.8</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="44">
         <v>25.68</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="45">
         <v>14.42</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>40.1</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="44">
         <v>25.68</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="45">
         <v>14.42</v>
       </c>
-      <c r="F39" s="54">
+      <c r="F39" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>40.1</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="44">
         <v>1312.89</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="45">
         <v>115.36</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1428.25</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="44">
         <v>2841.92</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="45">
         <v>115.36</v>
       </c>
-      <c r="F41" s="54">
+      <c r="F41" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>2957.28</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="44">
         <v>3569.52</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="45">
         <v>115.36</v>
       </c>
-      <c r="F42" s="54">
+      <c r="F42" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>3684.88</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="44">
         <v>4793.6000000000004</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="45">
         <v>115.36</v>
       </c>
-      <c r="F43" s="54">
+      <c r="F43" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>4908.96</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="44">
         <v>22.47</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="45">
         <v>14.42</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F44" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>36.89</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="44">
         <v>469.73</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F45" s="54">
+      <c r="F45" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>541.83000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="44">
         <v>120.91</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="45">
         <v>23.69</v>
       </c>
-      <c r="F46" s="54">
+      <c r="F46" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>144.6</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="44">
         <v>169.06</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="45">
         <v>23.69</v>
       </c>
-      <c r="F47" s="54">
+      <c r="F47" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>192.75</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="44">
         <v>195.81</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="45">
         <v>23.69</v>
       </c>
-      <c r="F48" s="54">
+      <c r="F48" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>219.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="44">
         <v>255.73</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="45">
         <v>23.69</v>
       </c>
-      <c r="F49" s="54">
+      <c r="F49" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>279.42</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="44">
         <v>2218.11</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="45">
         <v>115.36</v>
       </c>
-      <c r="F50" s="54">
+      <c r="F50" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>2333.4700000000003</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="44">
         <v>731.88</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="45">
         <v>115.36</v>
       </c>
-      <c r="F51" s="54">
+      <c r="F51" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>847.24</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="44">
         <v>1761.22</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="45">
         <v>115.36</v>
       </c>
-      <c r="F52" s="54">
+      <c r="F52" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1876.58</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="44">
         <v>212.93</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="45">
         <v>222.48</v>
       </c>
-      <c r="F53" s="54">
+      <c r="F53" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>435.40999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="44">
         <v>0</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E54" s="45">
         <v>425.39</v>
       </c>
-      <c r="F54" s="54">
+      <c r="F54" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>425.39</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="44">
         <v>1094.6100000000001</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E55" s="45">
         <v>115.36</v>
       </c>
-      <c r="F55" s="54">
+      <c r="F55" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1209.97</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="44">
         <v>680.52</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F56" s="54">
+      <c r="F56" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>752.62</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="44">
         <v>907.36</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F57" s="54">
+      <c r="F57" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>979.46</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="44">
         <v>2001.97</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F58" s="54">
+      <c r="F58" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>2074.0700000000002</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C59" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="44">
         <v>4000</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="45">
         <v>80</v>
       </c>
-      <c r="F59" s="54">
+      <c r="F59" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>4080</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="44">
         <v>4800</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="45">
         <v>80</v>
       </c>
-      <c r="F60" s="54">
+      <c r="F60" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>4880</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="48">
+      <c r="D61" s="44">
         <v>5600</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61" s="45">
         <v>80</v>
       </c>
-      <c r="F61" s="54">
+      <c r="F61" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>5680</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="48">
+      <c r="D62" s="44">
         <v>784.31</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F62" s="54">
+      <c r="F62" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>856.41</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="44">
         <v>601.34</v>
       </c>
-      <c r="E63" s="49">
+      <c r="E63" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F63" s="54">
+      <c r="F63" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>673.44</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="44">
         <v>352.03</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F64" s="54">
+      <c r="F64" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>424.13</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="48">
+      <c r="D65" s="44">
         <v>123.05</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="45">
         <v>48.41</v>
       </c>
-      <c r="F65" s="54">
+      <c r="F65" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>171.45999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="44">
         <v>55.64</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="45">
         <v>23.69</v>
       </c>
-      <c r="F66" s="54">
+      <c r="F66" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>79.33</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="44">
         <v>71.69</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="45">
         <v>23.69</v>
       </c>
-      <c r="F67" s="54">
+      <c r="F67" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>95.38</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="44">
         <v>66.34</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="45">
         <v>23.69</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F68" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>90.03</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C69" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="44">
         <v>1079.6300000000001</v>
       </c>
-      <c r="E69" s="49">
+      <c r="E69" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F69" s="54">
+      <c r="F69" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1151.73</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C70" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="48">
+      <c r="D70" s="44">
         <v>1194.1199999999999</v>
       </c>
-      <c r="E70" s="49">
+      <c r="E70" s="45">
         <v>1936.4</v>
       </c>
-      <c r="F70" s="54">
+      <c r="F70" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>3130.52</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C71" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="44">
         <v>179.76</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="45">
         <v>23.69</v>
       </c>
-      <c r="F71" s="54">
+      <c r="F71" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>203.45</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="44">
         <v>223.63</v>
       </c>
-      <c r="E72" s="49">
+      <c r="E72" s="45">
         <v>23.69</v>
       </c>
-      <c r="F72" s="54">
+      <c r="F72" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>247.32</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="D73" s="48">
+      <c r="D73" s="44">
         <v>317.79000000000002</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73" s="45">
         <v>222.48</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>540.27</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="44">
         <v>99.51</v>
       </c>
-      <c r="E74" s="49">
+      <c r="E74" s="45">
         <v>222.48</v>
       </c>
-      <c r="F74" s="54">
+      <c r="F74" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>321.99</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="44">
         <v>208.65</v>
       </c>
-      <c r="E75" s="49">
+      <c r="E75" s="45">
         <v>174.07</v>
       </c>
-      <c r="F75" s="54">
+      <c r="F75" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>382.72</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="48">
+      <c r="D76" s="44">
         <v>208.65</v>
       </c>
-      <c r="E76" s="49">
+      <c r="E76" s="45">
         <v>174.07</v>
       </c>
-      <c r="F76" s="54">
+      <c r="F76" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>382.72</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="44">
         <v>195.81</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E77" s="45">
         <v>425.39</v>
       </c>
-      <c r="F77" s="54">
+      <c r="F77" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>621.20000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="44">
         <v>188.32</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E78" s="45">
         <v>425.39</v>
       </c>
-      <c r="F78" s="54">
+      <c r="F78" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>613.71</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="44">
         <v>176.55</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E79" s="45">
         <v>174.07</v>
       </c>
-      <c r="F79" s="54">
+      <c r="F79" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>350.62</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D80" s="48">
+      <c r="D80" s="44">
         <v>381.99</v>
       </c>
-      <c r="E80" s="49">
+      <c r="E80" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F80" s="54">
+      <c r="F80" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>454.09000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C81" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="44">
         <v>1068.93</v>
       </c>
-      <c r="E81" s="49">
+      <c r="E81" s="45">
         <v>72.099999999999994</v>
       </c>
-      <c r="F81" s="54">
+      <c r="F81" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1141.03</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C82" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="44">
         <v>4104.5200000000004</v>
       </c>
-      <c r="E82" s="49">
+      <c r="E82" s="45">
         <v>174.07</v>
       </c>
-      <c r="F82" s="54">
+      <c r="F82" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>4278.59</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="44">
         <v>547.84</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83" s="45">
         <v>174.07</v>
       </c>
-      <c r="F83" s="54">
+      <c r="F83" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>721.91000000000008</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="D84" s="48">
+      <c r="D84" s="44">
         <v>1094.6100000000001</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E84" s="45">
         <v>174.07</v>
       </c>
-      <c r="F84" s="54">
+      <c r="F84" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>1268.68</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="53" t="s">
+      <c r="A85" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="47" t="s">
+      <c r="C85" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="D85" s="48">
+      <c r="D85" s="44">
         <v>2974.6</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="45">
         <v>222.48</v>
       </c>
-      <c r="F85" s="54">
+      <c r="F85" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>3197.08</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="48">
+      <c r="D86" s="44">
         <v>9114.26</v>
       </c>
-      <c r="E86" s="49">
+      <c r="E86" s="45">
         <v>425.39</v>
       </c>
-      <c r="F86" s="54">
+      <c r="F86" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>9539.65</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="44">
         <v>5253.7</v>
       </c>
-      <c r="E87" s="49">
+      <c r="E87" s="45">
         <v>425.39</v>
       </c>
-      <c r="F87" s="54">
+      <c r="F87" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>5679.09</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="47" t="s">
+      <c r="C88" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="44">
         <v>268.57</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="45">
         <v>425.39</v>
       </c>
-      <c r="F88" s="54">
+      <c r="F88" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>693.96</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C89" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="44">
         <v>387.34000000000003</v>
       </c>
-      <c r="E89" s="49">
+      <c r="E89" s="45">
         <v>425.39</v>
       </c>
-      <c r="F89" s="54">
+      <c r="F89" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>812.73</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="60" t="s">
+      <c r="A90" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="62" t="s">
+      <c r="C90" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="63">
+      <c r="D90" s="59">
         <v>0</v>
       </c>
-      <c r="E90" s="64">
+      <c r="E90" s="60">
         <v>450</v>
       </c>
-      <c r="F90" s="54">
+      <c r="F90" s="50">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>450</v>
       </c>
@@ -5319,928 +5476,928 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="70" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="65">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="46">
         <v>2004</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="65">
+      <c r="A3" s="61">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="46">
         <v>2005</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="65">
+      <c r="A4" s="61">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="46">
         <v>2007</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="65">
+      <c r="A5" s="61">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="46">
         <v>2007</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="46">
         <v>2007</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="65">
+      <c r="A7" s="61">
         <v>6</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="46">
         <v>2000</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="65">
+      <c r="A8" s="61">
         <v>7</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="46">
         <v>1972</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="65">
+      <c r="A9" s="61">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="46">
         <v>2006</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="65">
+      <c r="A10" s="61">
         <v>9</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="46">
         <v>1989</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="65">
+      <c r="A11" s="61">
         <v>10</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="46">
         <v>1990</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="65">
+      <c r="A12" s="61">
         <v>11</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="46">
         <v>2008</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="63">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="65">
+      <c r="A13" s="61">
         <v>12</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="46">
         <v>2008</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="63">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="66">
+      <c r="A14" s="62">
         <v>13</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="46">
         <v>2008</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="65">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="65">
+      <c r="A15" s="61">
         <v>14</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="46">
         <v>2009</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="63">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="46">
         <v>2009</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="65">
+      <c r="A17" s="61">
         <v>16</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="46">
         <v>2008</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="65">
+      <c r="A18" s="61">
         <v>17</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="46">
         <v>2009</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="65">
+      <c r="A19" s="61">
         <v>18</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="46">
         <v>2009</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="63">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="65">
+      <c r="A20" s="61">
         <v>19</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="46">
         <v>2010</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="65">
+      <c r="A21" s="61">
         <v>20</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="46">
         <v>2010</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="65">
+      <c r="A22" s="61">
         <v>21</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="65">
+      <c r="A23" s="61">
         <v>22</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="46">
         <v>2007</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="63">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="65">
+      <c r="A24" s="61">
         <v>23</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="46">
         <v>2009</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="65">
+      <c r="A25" s="61">
         <v>24</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="46">
         <v>2009</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="65">
+      <c r="A26" s="61">
         <v>25</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="46">
         <v>2007</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="63">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="65">
+      <c r="A27" s="61">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="46">
         <v>2007</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="66">
+      <c r="A28" s="62">
         <v>27</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="46">
         <v>2009</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="65">
+      <c r="A29" s="61">
         <v>28</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="46">
         <v>2009</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="65">
+      <c r="A30" s="61">
         <v>29</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="46">
         <v>2009</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="65">
+      <c r="A31" s="61">
         <v>30</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="46">
         <v>2009</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="75">
+      <c r="A32" s="71">
         <v>31</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="E32" s="77">
+      <c r="E32" s="73">
         <v>2009</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="F32" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="73" t="s">
         <v>328</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="I32" s="78">
+      <c r="I32" s="74">
         <v>4</v>
       </c>
     </row>
@@ -6259,27 +6416,28 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -6290,15 +6448,15 @@
       <c r="F3" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="D5" s="88" t="s">
+      <c r="B5" s="96"/>
+      <c r="D5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="93"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -6306,155 +6464,172 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="98" t="s">
         <v>333</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="90"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="89" t="s">
+      <c r="B9" s="90"/>
+      <c r="D9" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="91"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="88" t="s">
+      <c r="B11" s="92"/>
+      <c r="D11" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="90"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="94"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="94"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="87" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41">
+      <c r="G18" s="89" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34">
         <f>E19*D19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
+      <c r="G19" s="88"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="35">
         <f>SUM(F19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <f>+F20*0.16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <f>+F21+F20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D5:E5"/>
@@ -6469,17 +6644,17 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>754380</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>175260</xdr:rowOff>
               </to>
@@ -6523,13 +6698,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>160020</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>754380</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>175260</xdr:rowOff>
               </to>
@@ -6548,13 +6723,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>754380</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>167640</xdr:rowOff>
               </to>
@@ -6592,6 +6767,9 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
+  <tableParts count="1">
+    <tablePart r:id="rId14"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6606,288 +6784,288 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="94" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="E21" s="98" t="s">
+      <c r="B21" s="12"/>
+      <c r="E21" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="98" t="s">
+      <c r="B22" s="12"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="97"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="F31" s="92" t="s">
+      <c r="B31" s="101"/>
+      <c r="F31" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="109"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -6935,7 +7113,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6956,7 +7134,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -6972,242 +7150,242 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="113"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7311,10 +7489,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7322,82 +7500,41 @@
     <col min="1" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="79" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="77" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="83">
-        <v>42016</v>
-      </c>
-      <c r="F2" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3">
-        <v>321</v>
-      </c>
-      <c r="D3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="83">
-        <v>42351</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="81"/>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="46"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -7412,10 +7549,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7424,54 +7561,25 @@
       <c r="A1" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="81">
-        <v>1</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="85">
-        <v>5</v>
-      </c>
-      <c r="E2" s="85"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="81">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="85"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
-        <v>2</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4">
-        <v>54</v>
-      </c>
+      <c r="A2" s="77"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Dielmex Order Manager/Programacion-Excel.xlsx
+++ b/Dielmex Order Manager/Programacion-Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16152" windowHeight="7416" tabRatio="638" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11016" windowHeight="7416" tabRatio="638" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Precios" sheetId="4" r:id="rId1"/>
@@ -1704,6 +1704,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1718,27 +1739,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,10 +2730,27 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="132A89A151759014AEB184F216556CD900D221"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2265"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19EA1E6DA1E9D1146951A77C16F0B7E97DAC71"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="15E57E5F1128D3144B71B706123362B4519C21"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2741,23 +2758,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2096"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="974"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1487594CF1FC2C147F61B896146A81E4A150B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3133"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2781,10 +2781,27 @@
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1487594CF1FC2C147F61B896146A81E4A150B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3133"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="15E57E5F1128D3144B71B706123362B4519C21"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19EA1E6DA1E9D1146951A77C16F0B7E97DAC71"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2792,23 +2809,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2096"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="974"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="132A89A151759014AEB184F216556CD900D221"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2265"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="508"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -6416,7 +6416,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6643,52 +6643,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>891540</xdr:colOff>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>754380</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>15240</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId4" name="_ActiveXWrapper21"/>
+        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId6" name="_ActiveXWrapper1">
+        <control shapeId="1041" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1150620</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>754380</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="1041" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6718,52 +6718,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="1034" r:id="rId10" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>754380</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1150620</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="1034" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>891540</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>754380</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper21"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6789,30 +6789,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
@@ -6844,17 +6844,17 @@
         <v>33</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="16" t="s">
         <v>35</v>
       </c>
@@ -6873,17 +6873,17 @@
       <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
@@ -6911,10 +6911,10 @@
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="103"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -6938,10 +6938,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="107"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -6952,10 +6952,10 @@
       </c>
       <c r="B22" s="12"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="107"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -6964,41 +6964,41 @@
       <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
     </row>
     <row r="25" spans="1:9" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="104"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
@@ -7007,33 +7007,33 @@
       <c r="A28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="F31" s="101" t="s">
+      <c r="B31" s="108"/>
+      <c r="F31" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -7060,22 +7060,16 @@
       <c r="A37" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="108"/>
-      <c r="C38" s="109"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A31:B31"/>
@@ -7087,6 +7081,12 @@
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
@@ -7491,7 +7491,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7552,7 +7552,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dielmex Order Manager/Programacion-Excel.xlsx
+++ b/Dielmex Order Manager/Programacion-Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11016" windowHeight="7416" tabRatio="638" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21384" windowHeight="9288" tabRatio="697" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Precios" sheetId="4" r:id="rId1"/>
@@ -17,9 +17,14 @@
     <sheet name="Captura" sheetId="1" r:id="rId3"/>
     <sheet name="OrdServ" sheetId="3" r:id="rId4"/>
     <sheet name="Reporte" sheetId="2" r:id="rId5"/>
-    <sheet name="DBOH" sheetId="6" r:id="rId6"/>
-    <sheet name="DBOB" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId6"/>
+    <sheet name="DBOH" sheetId="6" r:id="rId7"/>
+    <sheet name="DBOB" sheetId="7" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Criteria" localSheetId="5">Hoja2!$B$2</definedName>
+    <definedName name="tbOrdenHeaderOrdenNumber">tbOrdenHeader[No Orden]</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="351">
   <si>
     <t>Descripción</t>
   </si>
@@ -146,24 +151,12 @@
     <t>CLASIFICACIÓN DEL BIEN:</t>
   </si>
   <si>
-    <t>TIPO DE BIEN:</t>
-  </si>
-  <si>
-    <t>TIPO DE EQUIPO:</t>
-  </si>
-  <si>
-    <t>UBICACIÓN O CTRO. DE COSTO</t>
-  </si>
-  <si>
     <t>CARACTERÍSTICAS DEL EQUIPO:</t>
   </si>
   <si>
     <t>MARCA:</t>
   </si>
   <si>
-    <t>MODELO O TIPO</t>
-  </si>
-  <si>
     <t>No. SERIE:</t>
   </si>
   <si>
@@ -1062,6 +1055,39 @@
   </si>
   <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>1233-3213</t>
+  </si>
+  <si>
+    <t>sanctorum</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>jong</t>
+  </si>
+  <si>
+    <t>DELEGACION</t>
+  </si>
+  <si>
+    <t>CENTRO_TRABAJO</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Orden Dielmex</t>
+  </si>
+  <si>
+    <t>CATEGORIA:</t>
+  </si>
+  <si>
+    <t>CENTRO DE TRABAJO</t>
+  </si>
+  <si>
+    <t>NO ECONOMICO O NUMERO DE PARTE</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1097,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,6 +1218,17 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1218,7 +1255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1431,12 +1468,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1510,7 +1556,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1692,6 +1737,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1725,6 +1784,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1739,6 +1804,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1754,7 +1822,10 @@
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="45">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <sz val="9"/>
@@ -2033,6 +2104,74 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8.5"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3237,15 +3376,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:F90" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A3:F90" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A3:F90"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="REF" dataDxfId="37"/>
-    <tableColumn id="2" name="UNIDAD DE MEDIDA" dataDxfId="36"/>
-    <tableColumn id="3" name="DESCRIPCION" dataDxfId="35"/>
-    <tableColumn id="4" name="REFACCIONES" dataDxfId="34"/>
-    <tableColumn id="5" name="MANO DE OBRA" dataDxfId="33"/>
-    <tableColumn id="6" name="TOTAL" dataDxfId="32">
+    <tableColumn id="1" name="REF" dataDxfId="40"/>
+    <tableColumn id="2" name="UNIDAD DE MEDIDA" dataDxfId="39"/>
+    <tableColumn id="3" name="DESCRIPCION" dataDxfId="38"/>
+    <tableColumn id="4" name="REFACCIONES" dataDxfId="37"/>
+    <tableColumn id="5" name="MANO DE OBRA" dataDxfId="36"/>
+    <tableColumn id="6" name="TOTAL" dataDxfId="35">
       <calculatedColumnFormula>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3254,66 +3393,70 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:I32" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:I32"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="No." dataDxfId="26"/>
-    <tableColumn id="2" name="CATEGORIA" dataDxfId="25"/>
-    <tableColumn id="3" name="TIPO" dataDxfId="24"/>
-    <tableColumn id="4" name="MARCA" dataDxfId="23"/>
-    <tableColumn id="5" name="MODELO" dataDxfId="22"/>
-    <tableColumn id="6" name="PLACA" dataDxfId="21"/>
-    <tableColumn id="7" name="NECONOMICO" dataDxfId="20"/>
-    <tableColumn id="8" name="RED" dataDxfId="19"/>
-    <tableColumn id="9" name="CILINDROS" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K32" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A1:K32"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="No." dataDxfId="29"/>
+    <tableColumn id="2" name="CATEGORIA" dataDxfId="28"/>
+    <tableColumn id="3" name="TIPO" dataDxfId="27"/>
+    <tableColumn id="4" name="MARCA" dataDxfId="26"/>
+    <tableColumn id="5" name="MODELO" dataDxfId="25"/>
+    <tableColumn id="6" name="PLACA" dataDxfId="24"/>
+    <tableColumn id="7" name="NECONOMICO" dataDxfId="23"/>
+    <tableColumn id="8" name="RED" dataDxfId="22"/>
+    <tableColumn id="9" name="CILINDROS" dataDxfId="21"/>
+    <tableColumn id="10" name="CENTRO_TRABAJO" dataDxfId="20"/>
+    <tableColumn id="11" name="DELEGACION" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tbBody" displayName="tbBody" ref="A18:G19" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tbBody" displayName="tbBody" ref="A18:G19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A18:G19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Clave" dataDxfId="13"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="12"/>
-    <tableColumn id="3" name="Unidad de Medida" dataDxfId="11"/>
-    <tableColumn id="4" name="Precio Unitario" dataDxfId="10"/>
-    <tableColumn id="5" name="Cantidad" dataDxfId="9"/>
-    <tableColumn id="6" name="Subtotal" dataDxfId="8">
+    <tableColumn id="1" name="Clave" dataDxfId="14"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="13"/>
+    <tableColumn id="3" name="Unidad de Medida" dataDxfId="12"/>
+    <tableColumn id="4" name="Precio Unitario" dataDxfId="11"/>
+    <tableColumn id="5" name="Cantidad" dataDxfId="10"/>
+    <tableColumn id="6" name="Subtotal" dataDxfId="9">
       <calculatedColumnFormula>E19*D19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Actions" dataDxfId="7"/>
+    <tableColumn id="7" name="Actions" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbOrdenHeader" displayName="tbOrdenHeader" ref="A1:G2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbOrdenHeader" displayName="tbOrdenHeader" ref="A1:G2" totalsRowShown="0">
   <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No Orden"/>
-    <tableColumn id="11" name="No Equipo" dataDxfId="6"/>
+    <tableColumn id="11" name="No Equipo" dataDxfId="7"/>
     <tableColumn id="5" name="Centro de trabajo"/>
     <tableColumn id="6" name="Delegacion"/>
-    <tableColumn id="7" name="Fecha de Servicio" dataDxfId="5"/>
-    <tableColumn id="9" name="Tecnico" dataDxfId="4"/>
-    <tableColumn id="10" name="Recibio el servicio" dataDxfId="3"/>
+    <tableColumn id="7" name="Fecha de Servicio" dataDxfId="6"/>
+    <tableColumn id="9" name="Tecnico" dataDxfId="5"/>
+    <tableColumn id="10" name="Recibio el servicio" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tbOrdenBody" displayName="tbOrdenBody" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tbOrdenBody" displayName="tbOrdenBody" ref="A1:E3" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Orden" dataDxfId="1"/>
-    <tableColumn id="2" name="Clave" dataDxfId="0"/>
+    <tableColumn id="1" name="Orden" dataDxfId="2"/>
+    <tableColumn id="2" name="Clave" dataDxfId="1"/>
     <tableColumn id="3" name="Precio Unitario"/>
     <tableColumn id="4" name="Cantidad"/>
-    <tableColumn id="5" name="Subtotal"/>
+    <tableColumn id="5" name="Subtotal" dataDxfId="0">
+      <calculatedColumnFormula>+tbOrdenBody[[#This Row],[Precio Unitario]]*tbOrdenBody[[#This Row],[Cantidad]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3585,8 +3728,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:F90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3599,1848 +3742,1848 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="53" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="B4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="C4" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="D4" s="43">
+        <v>924.48</v>
+      </c>
+      <c r="E4" s="44">
+        <v>174.07</v>
+      </c>
+      <c r="F4" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1098.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="B5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="D5" s="43">
+        <v>1173.79</v>
+      </c>
+      <c r="E5" s="44">
+        <v>193.64</v>
+      </c>
+      <c r="F5" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1367.4299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="44">
-        <v>924.48</v>
-      </c>
-      <c r="E4" s="45">
+      <c r="C6" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="43">
+        <v>98.44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>77.25</v>
+      </c>
+      <c r="F6" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>175.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="43">
+        <v>275</v>
+      </c>
+      <c r="E7" s="44">
+        <v>80</v>
+      </c>
+      <c r="F7" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="43">
+        <v>353.1</v>
+      </c>
+      <c r="E8" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F8" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>401.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="43">
+        <v>342.4</v>
+      </c>
+      <c r="E9" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F9" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>390.80999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="43">
+        <v>84.53</v>
+      </c>
+      <c r="E10" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F10" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>132.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="43">
+        <v>105.93</v>
+      </c>
+      <c r="E11" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F11" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>154.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="43">
+        <v>105.93</v>
+      </c>
+      <c r="E12" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F12" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>154.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="43">
+        <v>199.02</v>
+      </c>
+      <c r="E13" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F13" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>247.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="43">
+        <v>256.8</v>
+      </c>
+      <c r="E14" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F14" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>305.21000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="43">
+        <v>192.6</v>
+      </c>
+      <c r="E15" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F15" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>241.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="43">
+        <v>192.6</v>
+      </c>
+      <c r="E16" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F16" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>241.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="43">
+        <v>192.6</v>
+      </c>
+      <c r="E17" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F17" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>241.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="43">
+        <v>375.57</v>
+      </c>
+      <c r="E18" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F18" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>423.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="43">
+        <v>983.33</v>
+      </c>
+      <c r="E19" s="44">
+        <v>77.25</v>
+      </c>
+      <c r="F19" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1060.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="43">
+        <v>583.15</v>
+      </c>
+      <c r="E20" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F20" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>631.55999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="43">
+        <v>497.55</v>
+      </c>
+      <c r="E21" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F21" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>545.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="43">
+        <v>923.41</v>
+      </c>
+      <c r="E22" s="44">
+        <v>96.82</v>
+      </c>
+      <c r="F22" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1020.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="43">
+        <v>526.44000000000005</v>
+      </c>
+      <c r="E23" s="44">
+        <v>96.82</v>
+      </c>
+      <c r="F23" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>623.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="43">
+        <v>368.08</v>
+      </c>
+      <c r="E24" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F24" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>440.17999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="43">
+        <v>368.08</v>
+      </c>
+      <c r="E25" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F25" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>440.17999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="43">
+        <v>410.88</v>
+      </c>
+      <c r="E26" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F26" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>482.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="43">
+        <v>3323.42</v>
+      </c>
+      <c r="E27" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F27" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>3438.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="43">
+        <v>2382.89</v>
+      </c>
+      <c r="E28" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F28" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>2498.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="43">
+        <v>441.91</v>
+      </c>
+      <c r="E29" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F29" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>514.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="43">
+        <v>850.65</v>
+      </c>
+      <c r="E30" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F30" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>922.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="43">
+        <v>128.4</v>
+      </c>
+      <c r="E31" s="44">
+        <v>38.11</v>
+      </c>
+      <c r="F31" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>166.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="43">
+        <v>1050</v>
+      </c>
+      <c r="E32" s="44">
+        <v>200</v>
+      </c>
+      <c r="F32" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="43">
+        <v>78.11</v>
+      </c>
+      <c r="E33" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F33" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="43">
+        <v>78.11</v>
+      </c>
+      <c r="E34" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F34" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="43">
+        <v>475.08</v>
+      </c>
+      <c r="E35" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F35" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>498.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="43">
+        <v>78.11</v>
+      </c>
+      <c r="E36" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F36" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="43">
+        <v>78.11</v>
+      </c>
+      <c r="E37" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F37" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="43">
+        <v>25.68</v>
+      </c>
+      <c r="E38" s="44">
+        <v>14.42</v>
+      </c>
+      <c r="F38" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="43">
+        <v>25.68</v>
+      </c>
+      <c r="E39" s="44">
+        <v>14.42</v>
+      </c>
+      <c r="F39" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="43">
+        <v>1312.89</v>
+      </c>
+      <c r="E40" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F40" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1428.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="43">
+        <v>2841.92</v>
+      </c>
+      <c r="E41" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F41" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>2957.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="43">
+        <v>3569.52</v>
+      </c>
+      <c r="E42" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F42" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>3684.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="43">
+        <v>4793.6000000000004</v>
+      </c>
+      <c r="E43" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F43" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>4908.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="43">
+        <v>22.47</v>
+      </c>
+      <c r="E44" s="44">
+        <v>14.42</v>
+      </c>
+      <c r="F44" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>36.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="43">
+        <v>469.73</v>
+      </c>
+      <c r="E45" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F45" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>541.83000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="43">
+        <v>120.91</v>
+      </c>
+      <c r="E46" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F46" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="43">
+        <v>169.06</v>
+      </c>
+      <c r="E47" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F47" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>192.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="43">
+        <v>195.81</v>
+      </c>
+      <c r="E48" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F48" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>219.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="43">
+        <v>255.73</v>
+      </c>
+      <c r="E49" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F49" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>279.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="43">
+        <v>2218.11</v>
+      </c>
+      <c r="E50" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F50" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>2333.4700000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="43">
+        <v>731.88</v>
+      </c>
+      <c r="E51" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F51" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>847.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="43">
+        <v>1761.22</v>
+      </c>
+      <c r="E52" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F52" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1876.58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="43">
+        <v>212.93</v>
+      </c>
+      <c r="E53" s="44">
+        <v>222.48</v>
+      </c>
+      <c r="F53" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>435.40999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="43">
+        <v>0</v>
+      </c>
+      <c r="E54" s="44">
+        <v>425.39</v>
+      </c>
+      <c r="F54" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>425.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="43">
+        <v>1094.6100000000001</v>
+      </c>
+      <c r="E55" s="44">
+        <v>115.36</v>
+      </c>
+      <c r="F55" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1209.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="43">
+        <v>680.52</v>
+      </c>
+      <c r="E56" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F56" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>752.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="43">
+        <v>907.36</v>
+      </c>
+      <c r="E57" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F57" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>979.46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="43">
+        <v>2001.97</v>
+      </c>
+      <c r="E58" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F58" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>2074.0700000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="43">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="44">
+        <v>80</v>
+      </c>
+      <c r="F59" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="43">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="44">
+        <v>80</v>
+      </c>
+      <c r="F60" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="43">
+        <v>5600</v>
+      </c>
+      <c r="E61" s="44">
+        <v>80</v>
+      </c>
+      <c r="F61" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="43">
+        <v>784.31</v>
+      </c>
+      <c r="E62" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F62" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>856.41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="43">
+        <v>601.34</v>
+      </c>
+      <c r="E63" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F63" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>673.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="43">
+        <v>352.03</v>
+      </c>
+      <c r="E64" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F64" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>424.13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="43">
+        <v>123.05</v>
+      </c>
+      <c r="E65" s="44">
+        <v>48.41</v>
+      </c>
+      <c r="F65" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>171.45999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="43">
+        <v>55.64</v>
+      </c>
+      <c r="E66" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F66" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="43">
+        <v>71.69</v>
+      </c>
+      <c r="E67" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F67" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>95.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="43">
+        <v>66.34</v>
+      </c>
+      <c r="E68" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F68" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>90.03</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="43">
+        <v>1079.6300000000001</v>
+      </c>
+      <c r="E69" s="44">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F69" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1151.73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="43">
+        <v>1194.1199999999999</v>
+      </c>
+      <c r="E70" s="44">
+        <v>1936.4</v>
+      </c>
+      <c r="F70" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>3130.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="43">
+        <v>179.76</v>
+      </c>
+      <c r="E71" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F71" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>203.45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="43">
+        <v>223.63</v>
+      </c>
+      <c r="E72" s="44">
+        <v>23.69</v>
+      </c>
+      <c r="F72" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>247.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="43">
+        <v>317.79000000000002</v>
+      </c>
+      <c r="E73" s="44">
+        <v>222.48</v>
+      </c>
+      <c r="F73" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>540.27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="43">
+        <v>99.51</v>
+      </c>
+      <c r="E74" s="44">
+        <v>222.48</v>
+      </c>
+      <c r="F74" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>321.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="43">
+        <v>208.65</v>
+      </c>
+      <c r="E75" s="44">
         <v>174.07</v>
       </c>
-      <c r="F4" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1098.55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="44">
-        <v>1173.79</v>
-      </c>
-      <c r="E5" s="45">
-        <v>193.64</v>
-      </c>
-      <c r="F5" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1367.4299999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="44">
-        <v>98.44</v>
-      </c>
-      <c r="E6" s="45">
-        <v>77.25</v>
-      </c>
-      <c r="F6" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>175.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="44">
-        <v>275</v>
-      </c>
-      <c r="E7" s="45">
-        <v>80</v>
-      </c>
-      <c r="F7" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="44">
-        <v>353.1</v>
-      </c>
-      <c r="E8" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F8" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>401.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="44">
-        <v>342.4</v>
-      </c>
-      <c r="E9" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F9" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>390.80999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="44">
-        <v>84.53</v>
-      </c>
-      <c r="E10" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F10" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>132.94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="44">
-        <v>105.93</v>
-      </c>
-      <c r="E11" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F11" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>154.34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="44">
-        <v>105.93</v>
-      </c>
-      <c r="E12" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F12" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>154.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="44">
-        <v>199.02</v>
-      </c>
-      <c r="E13" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F13" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>247.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="44">
-        <v>256.8</v>
-      </c>
-      <c r="E14" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F14" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>305.21000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="44">
-        <v>192.6</v>
-      </c>
-      <c r="E15" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F15" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>241.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="44">
-        <v>192.6</v>
-      </c>
-      <c r="E16" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F16" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>241.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="44">
-        <v>192.6</v>
-      </c>
-      <c r="E17" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F17" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>241.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="44">
-        <v>375.57</v>
-      </c>
-      <c r="E18" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F18" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>423.98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="44">
-        <v>983.33</v>
-      </c>
-      <c r="E19" s="45">
-        <v>77.25</v>
-      </c>
-      <c r="F19" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1060.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="44">
-        <v>583.15</v>
-      </c>
-      <c r="E20" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F20" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>631.55999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="44">
-        <v>497.55</v>
-      </c>
-      <c r="E21" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F21" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>545.96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="44">
-        <v>923.41</v>
-      </c>
-      <c r="E22" s="45">
-        <v>96.82</v>
-      </c>
-      <c r="F22" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1020.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="44">
-        <v>526.44000000000005</v>
-      </c>
-      <c r="E23" s="45">
-        <v>96.82</v>
-      </c>
-      <c r="F23" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>623.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="44">
-        <v>368.08</v>
-      </c>
-      <c r="E24" s="45">
+      <c r="F75" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>382.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="43">
+        <v>208.65</v>
+      </c>
+      <c r="E76" s="44">
+        <v>174.07</v>
+      </c>
+      <c r="F76" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>382.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="43">
+        <v>195.81</v>
+      </c>
+      <c r="E77" s="44">
+        <v>425.39</v>
+      </c>
+      <c r="F77" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>621.20000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="43">
+        <v>188.32</v>
+      </c>
+      <c r="E78" s="44">
+        <v>425.39</v>
+      </c>
+      <c r="F78" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>613.71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="43">
+        <v>176.55</v>
+      </c>
+      <c r="E79" s="44">
+        <v>174.07</v>
+      </c>
+      <c r="F79" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>350.62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" s="43">
+        <v>381.99</v>
+      </c>
+      <c r="E80" s="44">
         <v>72.099999999999994</v>
       </c>
-      <c r="F24" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>440.17999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="44">
-        <v>368.08</v>
-      </c>
-      <c r="E25" s="45">
+      <c r="F80" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>454.09000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="43">
+        <v>1068.93</v>
+      </c>
+      <c r="E81" s="44">
         <v>72.099999999999994</v>
       </c>
-      <c r="F25" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>440.17999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="44">
-        <v>410.88</v>
-      </c>
-      <c r="E26" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F26" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>482.98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="44">
-        <v>3323.42</v>
-      </c>
-      <c r="E27" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F27" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>3438.78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="44">
-        <v>2382.89</v>
-      </c>
-      <c r="E28" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F28" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>2498.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="44">
-        <v>441.91</v>
-      </c>
-      <c r="E29" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F29" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>514.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="44">
-        <v>850.65</v>
-      </c>
-      <c r="E30" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F30" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>922.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="44">
-        <v>128.4</v>
-      </c>
-      <c r="E31" s="45">
-        <v>38.11</v>
-      </c>
-      <c r="F31" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>166.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="44">
-        <v>1050</v>
-      </c>
-      <c r="E32" s="45">
-        <v>200</v>
-      </c>
-      <c r="F32" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="44">
-        <v>78.11</v>
-      </c>
-      <c r="E33" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F33" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="44">
-        <v>78.11</v>
-      </c>
-      <c r="E34" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F34" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="44">
-        <v>475.08</v>
-      </c>
-      <c r="E35" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F35" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>498.77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="44">
-        <v>78.11</v>
-      </c>
-      <c r="E36" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F36" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="44">
-        <v>78.11</v>
-      </c>
-      <c r="E37" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F37" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="44">
-        <v>25.68</v>
-      </c>
-      <c r="E38" s="45">
-        <v>14.42</v>
-      </c>
-      <c r="F38" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="44">
-        <v>25.68</v>
-      </c>
-      <c r="E39" s="45">
-        <v>14.42</v>
-      </c>
-      <c r="F39" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="44">
-        <v>1312.89</v>
-      </c>
-      <c r="E40" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F40" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1428.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="44">
-        <v>2841.92</v>
-      </c>
-      <c r="E41" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F41" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>2957.28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="44">
-        <v>3569.52</v>
-      </c>
-      <c r="E42" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F42" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>3684.88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="44">
-        <v>4793.6000000000004</v>
-      </c>
-      <c r="E43" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F43" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>4908.96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="44">
-        <v>22.47</v>
-      </c>
-      <c r="E44" s="45">
-        <v>14.42</v>
-      </c>
-      <c r="F44" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>36.89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="44">
-        <v>469.73</v>
-      </c>
-      <c r="E45" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F45" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>541.83000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="44">
-        <v>120.91</v>
-      </c>
-      <c r="E46" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F46" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>144.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="44">
-        <v>169.06</v>
-      </c>
-      <c r="E47" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F47" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>192.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="44">
-        <v>195.81</v>
-      </c>
-      <c r="E48" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F48" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>219.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="43" t="s">
+      <c r="F81" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1141.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="43">
+        <v>4104.5200000000004</v>
+      </c>
+      <c r="E82" s="44">
+        <v>174.07</v>
+      </c>
+      <c r="F82" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>4278.59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="43">
+        <v>547.84</v>
+      </c>
+      <c r="E83" s="44">
+        <v>174.07</v>
+      </c>
+      <c r="F83" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>721.91000000000008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="43">
+        <v>1094.6100000000001</v>
+      </c>
+      <c r="E84" s="44">
+        <v>174.07</v>
+      </c>
+      <c r="F84" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>1268.68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="43">
+        <v>2974.6</v>
+      </c>
+      <c r="E85" s="44">
+        <v>222.48</v>
+      </c>
+      <c r="F85" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>3197.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="43">
+        <v>9114.26</v>
+      </c>
+      <c r="E86" s="44">
+        <v>425.39</v>
+      </c>
+      <c r="F86" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>9539.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="43">
+        <v>5253.7</v>
+      </c>
+      <c r="E87" s="44">
+        <v>425.39</v>
+      </c>
+      <c r="F87" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>5679.09</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="44">
-        <v>255.73</v>
-      </c>
-      <c r="E49" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F49" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>279.42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="44">
-        <v>2218.11</v>
-      </c>
-      <c r="E50" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F50" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>2333.4700000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="44">
-        <v>731.88</v>
-      </c>
-      <c r="E51" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F51" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>847.24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="44">
-        <v>1761.22</v>
-      </c>
-      <c r="E52" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F52" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1876.58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="44">
-        <v>212.93</v>
-      </c>
-      <c r="E53" s="45">
-        <v>222.48</v>
-      </c>
-      <c r="F53" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>435.40999999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="44">
+      <c r="C88" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="43">
+        <v>268.57</v>
+      </c>
+      <c r="E88" s="44">
+        <v>425.39</v>
+      </c>
+      <c r="F88" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>693.96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="43">
+        <v>387.34000000000003</v>
+      </c>
+      <c r="E89" s="44">
+        <v>425.39</v>
+      </c>
+      <c r="F89" s="49">
+        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
+        <v>812.73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="58">
         <v>0</v>
       </c>
-      <c r="E54" s="45">
-        <v>425.39</v>
-      </c>
-      <c r="F54" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>425.39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="44">
-        <v>1094.6100000000001</v>
-      </c>
-      <c r="E55" s="45">
-        <v>115.36</v>
-      </c>
-      <c r="F55" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1209.97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="44">
-        <v>680.52</v>
-      </c>
-      <c r="E56" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F56" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>752.62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="44">
-        <v>907.36</v>
-      </c>
-      <c r="E57" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F57" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>979.46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="44">
-        <v>2001.97</v>
-      </c>
-      <c r="E58" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F58" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>2074.0700000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="44">
-        <v>4000</v>
-      </c>
-      <c r="E59" s="45">
-        <v>80</v>
-      </c>
-      <c r="F59" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="44">
-        <v>4800</v>
-      </c>
-      <c r="E60" s="45">
-        <v>80</v>
-      </c>
-      <c r="F60" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="44">
-        <v>5600</v>
-      </c>
-      <c r="E61" s="45">
-        <v>80</v>
-      </c>
-      <c r="F61" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>5680</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="44">
-        <v>784.31</v>
-      </c>
-      <c r="E62" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F62" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>856.41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="44">
-        <v>601.34</v>
-      </c>
-      <c r="E63" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F63" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>673.44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="44">
-        <v>352.03</v>
-      </c>
-      <c r="E64" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F64" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>424.13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="44">
-        <v>123.05</v>
-      </c>
-      <c r="E65" s="45">
-        <v>48.41</v>
-      </c>
-      <c r="F65" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>171.45999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="44">
-        <v>55.64</v>
-      </c>
-      <c r="E66" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F66" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>79.33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="44">
-        <v>71.69</v>
-      </c>
-      <c r="E67" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F67" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>95.38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="44">
-        <v>66.34</v>
-      </c>
-      <c r="E68" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F68" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>90.03</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="44">
-        <v>1079.6300000000001</v>
-      </c>
-      <c r="E69" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F69" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1151.73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" s="44">
-        <v>1194.1199999999999</v>
-      </c>
-      <c r="E70" s="45">
-        <v>1936.4</v>
-      </c>
-      <c r="F70" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>3130.52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="44">
-        <v>179.76</v>
-      </c>
-      <c r="E71" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F71" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>203.45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B72" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" s="44">
-        <v>223.63</v>
-      </c>
-      <c r="E72" s="45">
-        <v>23.69</v>
-      </c>
-      <c r="F72" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>247.32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="44">
-        <v>317.79000000000002</v>
-      </c>
-      <c r="E73" s="45">
-        <v>222.48</v>
-      </c>
-      <c r="F73" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>540.27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" s="44">
-        <v>99.51</v>
-      </c>
-      <c r="E74" s="45">
-        <v>222.48</v>
-      </c>
-      <c r="F74" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>321.99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="44">
-        <v>208.65</v>
-      </c>
-      <c r="E75" s="45">
-        <v>174.07</v>
-      </c>
-      <c r="F75" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>382.72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" s="44">
-        <v>208.65</v>
-      </c>
-      <c r="E76" s="45">
-        <v>174.07</v>
-      </c>
-      <c r="F76" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>382.72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="44">
-        <v>195.81</v>
-      </c>
-      <c r="E77" s="45">
-        <v>425.39</v>
-      </c>
-      <c r="F77" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>621.20000000000005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" s="44">
-        <v>188.32</v>
-      </c>
-      <c r="E78" s="45">
-        <v>425.39</v>
-      </c>
-      <c r="F78" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>613.71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="B79" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="44">
-        <v>176.55</v>
-      </c>
-      <c r="E79" s="45">
-        <v>174.07</v>
-      </c>
-      <c r="F79" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>350.62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="44">
-        <v>381.99</v>
-      </c>
-      <c r="E80" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F80" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>454.09000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="44">
-        <v>1068.93</v>
-      </c>
-      <c r="E81" s="45">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F81" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1141.03</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="44">
-        <v>4104.5200000000004</v>
-      </c>
-      <c r="E82" s="45">
-        <v>174.07</v>
-      </c>
-      <c r="F82" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>4278.59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="D83" s="44">
-        <v>547.84</v>
-      </c>
-      <c r="E83" s="45">
-        <v>174.07</v>
-      </c>
-      <c r="F83" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>721.91000000000008</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B84" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D84" s="44">
-        <v>1094.6100000000001</v>
-      </c>
-      <c r="E84" s="45">
-        <v>174.07</v>
-      </c>
-      <c r="F84" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>1268.68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D85" s="44">
-        <v>2974.6</v>
-      </c>
-      <c r="E85" s="45">
-        <v>222.48</v>
-      </c>
-      <c r="F85" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>3197.08</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B86" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="44">
-        <v>9114.26</v>
-      </c>
-      <c r="E86" s="45">
-        <v>425.39</v>
-      </c>
-      <c r="F86" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>9539.65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="B87" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="44">
-        <v>5253.7</v>
-      </c>
-      <c r="E87" s="45">
-        <v>425.39</v>
-      </c>
-      <c r="F87" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>5679.09</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B88" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="D88" s="44">
-        <v>268.57</v>
-      </c>
-      <c r="E88" s="45">
-        <v>425.39</v>
-      </c>
-      <c r="F88" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>693.96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89" s="44">
-        <v>387.34000000000003</v>
-      </c>
-      <c r="E89" s="45">
-        <v>425.39</v>
-      </c>
-      <c r="F89" s="50">
-        <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
-        <v>812.73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="B90" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="D90" s="59">
-        <v>0</v>
-      </c>
-      <c r="E90" s="60">
+      <c r="E90" s="59">
         <v>450</v>
       </c>
-      <c r="F90" s="50">
+      <c r="F90" s="49">
         <f>+Tabla1[[#This Row],[REFACCIONES]]+Tabla1[[#This Row],[MANO DE OBRA]]</f>
         <v>450</v>
       </c>
@@ -5458,10 +5601,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5475,930 +5618,1122 @@
     <col min="8" max="9" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1" s="68" t="s">
+      <c r="I1" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="60">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="45">
+        <v>2004</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="62">
+        <v>8</v>
+      </c>
+      <c r="J2" s="96">
+        <v>32321</v>
+      </c>
+      <c r="K2" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="45">
+        <v>2005</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="96">
+        <v>32322</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="60">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="45">
+        <v>2007</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" s="62">
+        <v>8</v>
+      </c>
+      <c r="J4" s="96">
+        <v>32323</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="60">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="45">
+        <v>2007</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="62">
+        <v>8</v>
+      </c>
+      <c r="J5" s="96">
+        <v>32324</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="45">
+        <v>2007</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="62">
+        <v>8</v>
+      </c>
+      <c r="J6" s="96">
+        <v>32325</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="60">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="45">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="62">
+        <v>8</v>
+      </c>
+      <c r="J7" s="96">
+        <v>32326</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="60">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="45">
+        <v>1972</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="62">
+        <v>8</v>
+      </c>
+      <c r="J8" s="96">
+        <v>32327</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="60">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="45">
+        <v>2006</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="62">
+        <v>8</v>
+      </c>
+      <c r="J9" s="96">
+        <v>32328</v>
+      </c>
+      <c r="K9" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="60">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1989</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="62">
+        <v>8</v>
+      </c>
+      <c r="J10" s="96">
+        <v>32329</v>
+      </c>
+      <c r="K10" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="45">
+        <v>1990</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" s="62">
+        <v>8</v>
+      </c>
+      <c r="J11" s="96">
+        <v>32330</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="60">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="45">
+        <v>2008</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" s="62">
+        <v>2</v>
+      </c>
+      <c r="J12" s="96">
+        <v>32331</v>
+      </c>
+      <c r="K12" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="60">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="45">
+        <v>2008</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="62">
+        <v>2</v>
+      </c>
+      <c r="J13" s="96">
+        <v>32332</v>
+      </c>
+      <c r="K13" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="45">
+        <v>2008</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="64">
+        <v>10</v>
+      </c>
+      <c r="J14" s="96">
+        <v>32333</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="60">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="45">
+        <v>2009</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="62">
+        <v>10</v>
+      </c>
+      <c r="J15" s="96">
+        <v>32334</v>
+      </c>
+      <c r="K15" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="45">
+        <v>2009</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="62">
+        <v>8</v>
+      </c>
+      <c r="J16" s="96">
+        <v>32335</v>
+      </c>
+      <c r="K16" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="60">
+        <v>16</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="45">
+        <v>2008</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="62">
+        <v>8</v>
+      </c>
+      <c r="J17" s="96">
+        <v>32336</v>
+      </c>
+      <c r="K17" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="60">
+        <v>17</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="45">
+        <v>2009</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I18" s="62">
+        <v>8</v>
+      </c>
+      <c r="J18" s="96">
+        <v>32337</v>
+      </c>
+      <c r="K18" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="60">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="45">
+        <v>2009</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I19" s="62">
+        <v>10</v>
+      </c>
+      <c r="J19" s="96">
+        <v>32338</v>
+      </c>
+      <c r="K19" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="60">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="D20" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="45">
+        <v>2010</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="62">
+        <v>4</v>
+      </c>
+      <c r="J20" s="96">
+        <v>32339</v>
+      </c>
+      <c r="K20" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="60">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="45">
+        <v>2010</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I21" s="62">
+        <v>4</v>
+      </c>
+      <c r="J21" s="96">
+        <v>32340</v>
+      </c>
+      <c r="K21" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="60">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="E22" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="H1" s="68" t="s">
+      <c r="F22" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="70" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="G22" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="65">
+        <v>6</v>
+      </c>
+      <c r="J22" s="96">
+        <v>32341</v>
+      </c>
+      <c r="K22" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="60">
+        <v>22</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="45">
+        <v>2007</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I23" s="62">
+        <v>6</v>
+      </c>
+      <c r="J23" s="96">
+        <v>32342</v>
+      </c>
+      <c r="K23" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="60">
+        <v>23</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="45">
+        <v>2009</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I24" s="62">
+        <v>4</v>
+      </c>
+      <c r="J24" s="96">
+        <v>32343</v>
+      </c>
+      <c r="K24" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="60">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="45">
+        <v>2009</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="46">
-        <v>2004</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="61">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="46">
-        <v>2005</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="64"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="61">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="46">
+      <c r="H25" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I25" s="62">
+        <v>4</v>
+      </c>
+      <c r="J25" s="96">
+        <v>32344</v>
+      </c>
+      <c r="K25" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="60">
+        <v>25</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="45">
         <v>2007</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="61">
+      <c r="F26" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="62">
+        <v>6</v>
+      </c>
+      <c r="J26" s="96">
+        <v>32345</v>
+      </c>
+      <c r="K26" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="60">
+        <v>26</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="45">
+        <v>2007</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I27" s="65">
+        <v>6</v>
+      </c>
+      <c r="J27" s="96">
+        <v>32346</v>
+      </c>
+      <c r="K27" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="61">
+        <v>27</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="45">
+        <v>2009</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="I28" s="62">
         <v>4</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="46">
-        <v>2007</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I5" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="46">
-        <v>2007</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I6" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="61">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="46">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I7" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="61">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="46">
-        <v>1972</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I8" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="61">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" s="46">
-        <v>2006</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I9" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="61">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E10" s="46">
-        <v>1989</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I10" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="61">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="46">
-        <v>1990</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I11" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="61">
-        <v>11</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="46">
-        <v>2008</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I12" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
-        <v>12</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E13" s="46">
-        <v>2008</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I13" s="63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
-        <v>13</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14" s="46">
-        <v>2008</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="61">
-        <v>14</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="J28" s="96">
+        <v>32347</v>
+      </c>
+      <c r="K28" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="60">
+        <v>28</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="45">
         <v>2009</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="F29" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="I29" s="62">
+        <v>4</v>
+      </c>
+      <c r="J29" s="96">
+        <v>32348</v>
+      </c>
+      <c r="K29" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="60">
+        <v>29</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="45">
         <v>2009</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I16" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="61">
-        <v>16</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E17" s="46">
-        <v>2008</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I17" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
-        <v>17</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E18" s="46">
+      <c r="F30" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="62">
+        <v>4</v>
+      </c>
+      <c r="J30" s="96">
+        <v>32349</v>
+      </c>
+      <c r="K30" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="60">
+        <v>30</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="45">
         <v>2009</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I18" s="63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="61">
-        <v>18</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" s="46">
+      <c r="F31" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I31" s="62">
+        <v>4</v>
+      </c>
+      <c r="J31" s="96">
+        <v>32350</v>
+      </c>
+      <c r="K31" s="99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="70">
+        <v>31</v>
+      </c>
+      <c r="B32" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="72">
         <v>2009</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I19" s="63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="61">
-        <v>19</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E20" s="46">
-        <v>2010</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="63">
+      <c r="F32" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="I32" s="73">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="61">
-        <v>20</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" s="46">
-        <v>2010</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I21" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="61">
-        <v>21</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="61">
-        <v>22</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="46">
-        <v>2007</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="61">
-        <v>23</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" s="46">
-        <v>2009</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="61">
-        <v>24</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="46">
-        <v>2009</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I25" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="61">
-        <v>25</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E26" s="46">
-        <v>2007</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I26" s="63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="61">
-        <v>26</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="46">
-        <v>2007</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I27" s="66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="62">
-        <v>27</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="46">
-        <v>2009</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="I28" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="61">
-        <v>28</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="46">
-        <v>2009</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="I29" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="61">
-        <v>29</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E30" s="46">
-        <v>2009</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I30" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="61">
-        <v>30</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E31" s="46">
-        <v>2009</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="I31" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="71">
-        <v>31</v>
-      </c>
-      <c r="B32" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="73">
-        <v>2009</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>327</v>
-      </c>
-      <c r="G32" s="73" t="s">
-        <v>328</v>
-      </c>
-      <c r="H32" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="I32" s="74">
-        <v>4</v>
+      <c r="J32" s="96">
+        <v>32351</v>
+      </c>
+      <c r="K32" s="99" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6416,14 +6751,14 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
@@ -6448,19 +6783,19 @@
       <c r="F3" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="D5" s="97" t="s">
+      <c r="A5" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="D5" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -6470,11 +6805,14 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="90"/>
+      <c r="B7" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
@@ -6485,18 +6823,18 @@
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="D9" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="90"/>
+      <c r="B9" s="89"/>
+      <c r="D9" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="89"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="90"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="22"/>
@@ -6505,94 +6843,103 @@
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="D11" s="97" t="s">
+      <c r="B11" s="91"/>
+      <c r="D11" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="90"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="93"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="94"/>
+        <v>49</v>
+      </c>
+      <c r="B13" s="95"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="98" t="str">
+        <f>LOOKUP(B7, Tabla2[NECONOMICO], Tabla2[PLACA])</f>
+        <v>SE-B2091</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="89" t="s">
-        <v>343</v>
+      <c r="G18" s="88" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34">
+      <c r="A19" s="81"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33">
         <f>E19*D19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="87"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="35">
-        <f>SUM(F19)</f>
+      <c r="F20" s="34">
+        <f>SUBTOTAL(109,tbBody[Subtotal])</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <f>+F20*0.16</f>
         <v>0</v>
       </c>
@@ -6600,10 +6947,10 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <f>+F21+F20</f>
         <v>0</v>
       </c>
@@ -6778,8 +7125,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A3:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6789,72 +7136,77 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>347</v>
+      </c>
       <c r="G6" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="16" t="s">
         <v>35</v>
       </c>
@@ -6873,29 +7225,32 @@
       <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="B15" s="115" t="str">
+        <f>LOOKUP(B22, Tabla2[NECONOMICO], Tabla2[CATEGORIA])</f>
+        <v>VEHÍCULOS DE EMERGENCIA</v>
+      </c>
+      <c r="C15" s="115"/>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -6905,19 +7260,25 @@
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="115" t="str">
+        <f>LOOKUP(B22, Tabla2[NECONOMICO], Tabla2[TIPO])</f>
+        <v>AMBULANCIA</v>
+      </c>
+      <c r="C17" s="115"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="E17" s="117" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118">
+        <f>LOOKUP(B22, Tabla2[NECONOMICO], Tabla2[CENTRO_TRABAJO])</f>
+        <v>32326</v>
+      </c>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
@@ -6930,75 +7291,87 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="E21" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="118" t="str">
+        <f>LOOKUP(B22, Tabla2[NECONOMICO], Tabla2[MARCA])</f>
+        <v>CHEVROLET</v>
+      </c>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="106"/>
+      <c r="G21" s="118">
+        <f>LOOKUP(B22, Tabla2[NECONOMICO], Tabla2[MODELO])</f>
+        <v>2000</v>
+      </c>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="111" t="str">
+        <f>LOOKUP(A7, tbOrdenHeader[No Orden], tbOrdenHeader[No Equipo])</f>
+        <v>120-89</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="106"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
+      <c r="A24" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="1:9" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="102"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="109"/>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="104"/>
+      <c r="A26" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
@@ -7007,33 +7380,33 @@
       <c r="A28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
+      <c r="A29" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="108"/>
-      <c r="F31" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
+      <c r="A31" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="115"/>
+      <c r="F31" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -7046,7 +7419,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="17"/>
@@ -7058,18 +7431,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
+        <v>47</v>
+      </c>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="17">
+  <mergeCells count="24">
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A31:B31"/>
@@ -7081,13 +7454,25 @@
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Seleccion de orden" prompt="Seleccione el numero de orden deseada para que el formato se llene." sqref="A7">
+      <formula1>tbOrdenHeaderOrdenNumber</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7099,7 +7484,7 @@
   <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H15" sqref="A15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7113,7 +7498,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7150,16 +7535,16 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="113"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -7169,7 +7554,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>7</v>
@@ -7488,19 +7873,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="48"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="78" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
@@ -7508,33 +7919,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="75" t="s">
+      <c r="D2" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="77" t="s">
+      <c r="E2" s="77">
+        <v>42103</v>
+      </c>
+      <c r="F2" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -7546,40 +7974,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="80">
+        <v>123</v>
+      </c>
+      <c r="D2" s="79">
+        <v>3</v>
+      </c>
+      <c r="E2" s="79">
+        <f>+tbOrdenBody[[#This Row],[Precio Unitario]]*tbOrdenBody[[#This Row],[Cantidad]]</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="76">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="80">
+        <v>1020.23</v>
+      </c>
+      <c r="D3" s="79">
+        <v>2</v>
+      </c>
+      <c r="E3" s="79">
+        <f>+tbOrdenBody[[#This Row],[Precio Unitario]]*tbOrdenBody[[#This Row],[Cantidad]]</f>
+        <v>2040.46</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
